--- a/Total Load Profile for the three buildings.xlsx
+++ b/Total Load Profile for the three buildings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HCC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HCC\Desktop\Microgrid Data of Prof. Leo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E09B6C65-46DC-46C4-B7D7-BCBAB7669F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5048CB-2C0B-42FD-AB2A-9C4EAF37E907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A4DE24DE-6B68-4C17-8B3D-26B6370CB2A1}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +447,7 @@
         <v>104.869999999999</v>
       </c>
       <c r="C2">
-        <v>478.15</v>
+        <v>228.15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>55.809999999999903</v>
       </c>
       <c r="C3">
-        <v>418.69</v>
+        <v>178.15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>53.85</v>
       </c>
       <c r="C4">
-        <v>420.79</v>
+        <v>170.79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -480,7 +480,7 @@
         <v>61.98</v>
       </c>
       <c r="C5">
-        <v>431.12</v>
+        <v>181.12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -491,7 +491,7 @@
         <v>67.599999999999994</v>
       </c>
       <c r="C6">
-        <v>437.57</v>
+        <v>187.57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>71.939999999999898</v>
       </c>
       <c r="C7">
-        <v>443.32</v>
+        <v>193.32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -513,7 +513,7 @@
         <v>75.61</v>
       </c>
       <c r="C8">
-        <v>447.26</v>
+        <v>197.26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>78.900000000000006</v>
       </c>
       <c r="C9">
-        <v>450.94</v>
+        <v>200.94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>81.290000000000006</v>
       </c>
       <c r="C10">
-        <v>450.18999999999897</v>
+        <v>200.19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>161.93</v>
       </c>
       <c r="C11">
-        <v>527.15</v>
+        <v>277.14999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>252.21</v>
       </c>
       <c r="C12">
-        <v>621.33000000000004</v>
+        <v>371.33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>236.8</v>
       </c>
       <c r="C13">
-        <v>640.9</v>
+        <v>390.9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>204.82</v>
       </c>
       <c r="C14">
-        <v>630.30999999999995</v>
+        <v>380.31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>182.29999999999899</v>
       </c>
       <c r="C15">
-        <v>615.21</v>
+        <v>365.21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -601,7 +601,7 @@
         <v>167.25</v>
       </c>
       <c r="C16">
-        <v>599.87999999999897</v>
+        <v>349.28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>152.72999999999999</v>
       </c>
       <c r="C17">
-        <v>587.52</v>
+        <v>337.52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>143.03</v>
       </c>
       <c r="C18">
-        <v>579.16</v>
+        <v>329.16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
         <v>136.26999999999899</v>
       </c>
       <c r="C19">
-        <v>570.04</v>
+        <v>320.04000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>132.25</v>
       </c>
       <c r="C20">
-        <v>560.94000000000005</v>
+        <v>310.94</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>136.99</v>
       </c>
       <c r="C21">
-        <v>554.91999999999996</v>
+        <v>304.92</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>147.32999999999899</v>
       </c>
       <c r="C22">
-        <v>557.78</v>
+        <v>307.77999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>155.63</v>
       </c>
       <c r="C23">
-        <v>563.05999999999995</v>
+        <v>313.06</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>161.33999999999901</v>
       </c>
       <c r="C24">
-        <v>565.16</v>
+        <v>315.16000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>151.26</v>
       </c>
       <c r="C25">
-        <v>544.05999999999995</v>
+        <v>294.06</v>
       </c>
     </row>
   </sheetData>
